--- a/cta策略/result/螺纹/RSI_1d/wfo绩效.xlsx
+++ b/cta策略/result/螺纹/RSI_1d/wfo绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.03669314339269614</v>
+        <v>-0.0636444420868445</v>
       </c>
       <c r="D2">
-        <v>-0.589171913552624</v>
+        <v>-0.2539207482315418</v>
       </c>
       <c r="E2">
-        <v>-0.1499454262389827</v>
+        <v>-0.09415920346441434</v>
       </c>
       <c r="F2">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
